--- a/plots_to_show/SARI/final_metrics_D15.xlsx
+++ b/plots_to_show/SARI/final_metrics_D15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21120" windowHeight="12825"/>
+    <workbookView windowWidth="21105" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,22 +66,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,19 +610,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,127 +640,118 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,8 +760,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1133,13 +1118,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="5" width="12.625"/>
     <col min="7" max="7" width="9" style="2"/>
@@ -1166,7 +1151,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1187,6 +1172,10 @@
       </c>
       <c r="G2" s="2">
         <f>IF(B4&lt;B3,IF(B4&lt;B2,2,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <f>IF(C4&lt;C3,IF(C4&lt;C2,2,1),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1230,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1253,6 +1242,10 @@
         <f>IF(B7&lt;B6,IF(B7&lt;B5,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H5" s="2">
+        <f>IF(C7&lt;C6,IF(C7&lt;C5,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
@@ -1294,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1317,6 +1310,10 @@
         <f>IF(B10&lt;B9,IF(B10&lt;B8,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H8" s="2">
+        <f>IF(C10&lt;C9,IF(C10&lt;C8,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1358,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1381,6 +1378,10 @@
         <f>IF(B13&lt;B12,IF(B13&lt;B11,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H11" s="2">
+        <f>IF(C13&lt;C12,IF(C13&lt;C11,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
@@ -1422,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1445,6 +1446,10 @@
         <f>IF(B16&lt;B15,IF(B16&lt;B14,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H14" s="2">
+        <f>IF(C16&lt;C15,IF(C16&lt;C14,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
@@ -1486,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1509,6 +1514,10 @@
         <f>IF(B19&lt;B18,IF(B19&lt;B17,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H17" s="2">
+        <f>IF(C19&lt;C18,IF(C19&lt;C17,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
@@ -1550,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1573,6 +1582,10 @@
         <f>IF(B22&lt;B21,IF(B22&lt;B20,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H20" s="2">
+        <f>IF(C22&lt;C21,IF(C22&lt;C20,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
@@ -1614,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1637,6 +1650,10 @@
         <f>IF(B25&lt;B24,IF(B25&lt;B23,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H23" s="2">
+        <f>IF(C25&lt;C24,IF(C25&lt;C23,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
@@ -1678,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -1701,6 +1718,10 @@
         <f>IF(B28&lt;B27,IF(B28&lt;B26,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H26" s="2">
+        <f>IF(C28&lt;C27,IF(C28&lt;C26,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
@@ -1742,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -1765,6 +1786,10 @@
         <f>IF(B31&lt;B30,IF(B31&lt;B29,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H29" s="2">
+        <f>IF(C31&lt;C30,IF(C31&lt;C29,2,1),0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
@@ -1806,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
@@ -1829,6 +1854,10 @@
         <f>IF(B34&lt;B33,IF(B34&lt;B32,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H32" s="2">
+        <f>IF(C34&lt;C33,IF(C34&lt;C32,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
@@ -1870,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1893,6 +1922,10 @@
         <f>IF(B37&lt;B36,IF(B37&lt;B35,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H35" s="2">
+        <f>IF(C37&lt;C36,IF(C37&lt;C35,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
@@ -1934,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -1957,6 +1990,10 @@
         <f>IF(B40&lt;B39,IF(B40&lt;B38,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H38" s="2">
+        <f>IF(C40&lt;C39,IF(C40&lt;C38,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
@@ -1998,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -2021,6 +2058,10 @@
         <f>IF(B43&lt;B42,IF(B43&lt;B41,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H41" s="2">
+        <f>IF(C43&lt;C42,IF(C43&lt;C41,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
@@ -2062,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -2083,6 +2124,10 @@
       </c>
       <c r="G44" s="2">
         <f>IF(B46&lt;B45,IF(B46&lt;B44,2,1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <f>IF(C46&lt;C45,IF(C46&lt;C44,2,1),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/plots_to_show/SARI/final_metrics_D15.xlsx
+++ b/plots_to_show/SARI/final_metrics_D15.xlsx
@@ -402,29 +402,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B2">
-        <v>6.571898447660588</v>
+        <v>6.747451336076999</v>
       </c>
       <c r="C2">
-        <v>23.03830507370611</v>
+        <v>24.71713437756397</v>
       </c>
       <c r="D2">
-        <v>5.034736363636364</v>
+        <v>5.247345454545455</v>
       </c>
       <c r="E2">
-        <v>19.84596313221995</v>
+        <v>21.26946410509365</v>
       </c>
       <c r="F2">
-        <v>4.18131587</v>
+        <v>4.5983960475</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -434,53 +434,53 @@
         </is>
       </c>
       <c r="B3">
-        <v>5.988271591733598</v>
+        <v>5.64446014754934</v>
       </c>
       <c r="C3">
-        <v>21.49637927568396</v>
+        <v>20.70537299872539</v>
       </c>
       <c r="D3">
-        <v>4.490327272727273</v>
+        <v>4.310518181818181</v>
       </c>
       <c r="E3">
-        <v>17.87369828124374</v>
+        <v>17.33363701816884</v>
       </c>
       <c r="F3">
-        <v>10.54933094</v>
+        <v>4.265438262499999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B4">
-        <v>4.440173853578258</v>
+        <v>3.922891667550014</v>
       </c>
       <c r="C4">
-        <v>11.7942474131696</v>
+        <v>10.7920355859507</v>
       </c>
       <c r="D4">
-        <v>2.65586</v>
+        <v>2.45702</v>
       </c>
       <c r="E4">
-        <v>8.501851135007756</v>
+        <v>8.028227685257988</v>
       </c>
       <c r="F4">
-        <v>4.2464717</v>
+        <v>4.802967560000001</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -490,47 +490,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.630146016255178</v>
+        <v>3.708404250617778</v>
       </c>
       <c r="C5">
-        <v>11.1911012145909</v>
+        <v>11.53866278697418</v>
       </c>
       <c r="D5">
-        <v>2.177913333333334</v>
+        <v>2.223460000000001</v>
       </c>
       <c r="E5">
-        <v>7.922071104136806</v>
+        <v>8.135456066920337</v>
       </c>
       <c r="F5">
-        <v>2.06837291</v>
+        <v>3.9611412225</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B6">
-        <v>2.670857339881709</v>
+        <v>2.824308947335613</v>
       </c>
       <c r="C6">
-        <v>6.298956869752745</v>
+        <v>6.353733102170497</v>
       </c>
       <c r="D6">
-        <v>1.956215789473684</v>
+        <v>1.979415789473685</v>
       </c>
       <c r="E6">
-        <v>5.441952636799167</v>
+        <v>5.256968276152381</v>
       </c>
       <c r="F6">
-        <v>4.25908299</v>
+        <v>3.5097883775</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -546,53 +546,53 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.296956971276288</v>
+        <v>2.354376895553426</v>
       </c>
       <c r="C7">
-        <v>5.441645832482497</v>
+        <v>5.349517382134589</v>
       </c>
       <c r="D7">
-        <v>1.543952631578948</v>
+        <v>1.547357894736842</v>
       </c>
       <c r="E7">
-        <v>4.415064818709235</v>
+        <v>4.256344912242886</v>
       </c>
       <c r="F7">
-        <v>14.1148632</v>
+        <v>2.9033103675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B8">
-        <v>3.939794751219806</v>
+        <v>4.345942136662359</v>
       </c>
       <c r="C8">
-        <v>8.497170211293465</v>
+        <v>9.102393811009543</v>
       </c>
       <c r="D8">
-        <v>2.258252173913044</v>
+        <v>2.353369565217391</v>
       </c>
       <c r="E8">
-        <v>5.725743511203501</v>
+        <v>5.837671419893036</v>
       </c>
       <c r="F8">
-        <v>3.16090514</v>
+        <v>5.8458942525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -602,53 +602,53 @@
         </is>
       </c>
       <c r="B9">
-        <v>2.836864554857827</v>
+        <v>3.032418675277857</v>
       </c>
       <c r="C9">
-        <v>5.484351960619487</v>
+        <v>5.750268894152722</v>
       </c>
       <c r="D9">
-        <v>1.637008695652174</v>
+        <v>1.68165652173913</v>
       </c>
       <c r="E9">
-        <v>3.810879460555685</v>
+        <v>3.761003668869915</v>
       </c>
       <c r="F9">
-        <v>34.1317165</v>
+        <v>4.0347114175</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B10">
-        <v>5.193760568683812</v>
+        <v>4.867160069128456</v>
       </c>
       <c r="C10">
-        <v>8.262419736218982</v>
+        <v>7.915731323529385</v>
       </c>
       <c r="D10">
-        <v>2.612959259259259</v>
+        <v>2.485222222222222</v>
       </c>
       <c r="E10">
-        <v>5.26804446235957</v>
+        <v>5.138128437386213</v>
       </c>
       <c r="F10">
-        <v>13.6381141</v>
+        <v>5.635676329999999</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
@@ -658,47 +658,47 @@
         </is>
       </c>
       <c r="B11">
-        <v>4.583265184705477</v>
+        <v>4.679547434433281</v>
       </c>
       <c r="C11">
-        <v>7.030694054641573</v>
+        <v>7.192864243612104</v>
       </c>
       <c r="D11">
-        <v>2.284370370370371</v>
+        <v>2.240555555555556</v>
       </c>
       <c r="E11">
-        <v>4.349795657731418</v>
+        <v>4.273847388219396</v>
       </c>
       <c r="F11">
-        <v>2.73891705</v>
+        <v>5.77082085</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B12">
-        <v>2.771681324604488</v>
+        <v>2.978307031010696</v>
       </c>
       <c r="C12">
-        <v>5.502118953046177</v>
+        <v>5.681286495822841</v>
       </c>
       <c r="D12">
-        <v>1.882283870967742</v>
+        <v>1.927264516129033</v>
       </c>
       <c r="E12">
-        <v>4.23011079027042</v>
+        <v>4.221322513070153</v>
       </c>
       <c r="F12">
-        <v>5.761899689999999</v>
+        <v>3.618569862499999</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -714,53 +714,53 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.33175979244806</v>
+        <v>2.299951869131739</v>
       </c>
       <c r="C13">
-        <v>4.485528569691573</v>
+        <v>4.466698820350747</v>
       </c>
       <c r="D13">
-        <v>1.655406451612903</v>
+        <v>1.676480645161291</v>
       </c>
       <c r="E13">
-        <v>3.477138306820768</v>
+        <v>3.555542724224707</v>
       </c>
       <c r="F13">
-        <v>8.841264010000002</v>
+        <v>2.98233687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>baseline2</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B14">
-        <v>3.203163442999971</v>
+        <v>3.267835484056249</v>
       </c>
       <c r="C14">
-        <v>6.099860125322979</v>
+        <v>6.233783355615456</v>
       </c>
       <c r="D14">
-        <v>2.271317142857143</v>
+        <v>2.313617142857142</v>
       </c>
       <c r="E14">
-        <v>4.750601515605477</v>
+        <v>4.850231258300709</v>
       </c>
       <c r="F14">
-        <v>2.98089666</v>
+        <v>4.1747656775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -770,25 +770,25 @@
         </is>
       </c>
       <c r="B15">
-        <v>3.341590217930892</v>
+        <v>3.375201484906387</v>
       </c>
       <c r="C15">
-        <v>6.198364492654779</v>
+        <v>6.322789608657904</v>
       </c>
       <c r="D15">
-        <v>2.311468571428571</v>
+        <v>2.354054285714285</v>
       </c>
       <c r="E15">
-        <v>4.588788452010547</v>
+        <v>4.714901949080031</v>
       </c>
       <c r="F15">
-        <v>2.83446143</v>
+        <v>4.4846552275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
